--- a/PCBs/beaglebone_pinout_concept.xlsx
+++ b/PCBs/beaglebone_pinout_concept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Public\Documents\Altium\Projects\shepherd_v2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{819A39FC-9B72-4DCE-9F22-CA2A7F5E63DC}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E939501-2166-4369-9621-0FA7DF1C5C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1512" yWindow="6660" windowWidth="24672" windowHeight="12396" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17484" yWindow="2388" windowWidth="21828" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="393" uniqueCount="284">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="395" uniqueCount="284">
   <si>
     <t>P8_01</t>
   </si>
@@ -886,7 +886,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -902,8 +902,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -919,12 +927,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -959,10 +961,10 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,8 +1327,8 @@
   </sheetPr>
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="K100" sqref="K100"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F105" sqref="F105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1384,7 +1386,7 @@
       <c r="C2" t="s">
         <v>94</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F2" s="2" t="s">
@@ -1409,7 +1411,7 @@
       <c r="C3" t="s">
         <v>94</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F3" s="2" t="s">
@@ -1437,7 +1439,7 @@
       <c r="C4" t="s">
         <v>96</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J4" t="str">
@@ -1459,7 +1461,7 @@
       <c r="C5" t="s">
         <v>95</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J5" t="str">
@@ -1481,7 +1483,7 @@
       <c r="C6" t="s">
         <v>97</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J6" t="str">
@@ -1503,7 +1505,7 @@
       <c r="C7" t="s">
         <v>98</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J7" t="str">
@@ -1700,7 +1702,7 @@
       <c r="B15">
         <v>26</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="5" t="s">
         <v>258</v>
       </c>
       <c r="J15" t="str">
@@ -1722,7 +1724,7 @@
       <c r="E16" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="6" t="s">
+      <c r="I16" s="5" t="s">
         <v>257</v>
       </c>
       <c r="J16" t="str">
@@ -1744,7 +1746,7 @@
       <c r="E17" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="6" t="s">
+      <c r="I17" s="5" t="s">
         <v>256</v>
       </c>
       <c r="J17" t="str">
@@ -1755,7 +1757,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO2</v>
       </c>
-      <c r="L17" s="7"/>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
@@ -1764,7 +1766,7 @@
       <c r="B18">
         <v>27</v>
       </c>
-      <c r="I18" s="6" t="s">
+      <c r="I18" s="5" t="s">
         <v>259</v>
       </c>
       <c r="J18" t="str">
@@ -1775,7 +1777,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO1</v>
       </c>
-      <c r="L18" s="7"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
@@ -1795,7 +1797,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>BTN Sense</v>
       </c>
-      <c r="L19" s="7"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
@@ -1818,7 +1820,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>BTN Led</v>
       </c>
-      <c r="L20" s="7"/>
+      <c r="L20" s="6"/>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
@@ -1827,7 +1829,7 @@
       <c r="B21">
         <v>63</v>
       </c>
-      <c r="D21" s="5" t="s">
+      <c r="D21" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E21" t="s">
@@ -1841,7 +1843,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L21" s="7"/>
+      <c r="L21" s="6"/>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
@@ -1850,7 +1852,7 @@
       <c r="B22">
         <v>62</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="4" t="s">
         <v>219</v>
       </c>
       <c r="E22" t="s">
@@ -1864,7 +1866,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L22" s="7"/>
+      <c r="L22" s="6"/>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
@@ -1873,7 +1875,7 @@
       <c r="B23">
         <v>37</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J23" t="str">
@@ -1884,7 +1886,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L23" s="7"/>
+      <c r="L23" s="6"/>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
@@ -1893,7 +1895,7 @@
       <c r="B24">
         <v>36</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J24" t="str">
@@ -1904,7 +1906,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L24" s="7"/>
+      <c r="L24" s="6"/>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
@@ -1913,7 +1915,7 @@
       <c r="B25">
         <v>33</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J25" t="str">
@@ -1924,7 +1926,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L25" s="7"/>
+      <c r="L25" s="6"/>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
@@ -1933,7 +1935,7 @@
       <c r="B26">
         <v>32</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>219</v>
       </c>
       <c r="J26" t="str">
@@ -1944,7 +1946,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L26" s="7"/>
+      <c r="L26" s="6"/>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
@@ -1964,7 +1966,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO4</v>
       </c>
-      <c r="L27" s="7"/>
+      <c r="L27" s="6"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
@@ -1990,7 +1992,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_batOK</v>
       </c>
-      <c r="L28" s="8" t="s">
+      <c r="L28" s="7" t="s">
         <v>279</v>
       </c>
     </row>
@@ -2021,7 +2023,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_dbg_Led0</v>
       </c>
-      <c r="L29" s="7"/>
+      <c r="L29" s="6"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
@@ -2047,7 +2049,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO4</v>
       </c>
-      <c r="L30" s="8" t="s">
+      <c r="L30" s="7" t="s">
         <v>255</v>
       </c>
     </row>
@@ -2078,7 +2080,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_dbg_Led1</v>
       </c>
-      <c r="L31" s="7"/>
+      <c r="L31" s="6"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
@@ -2102,7 +2104,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L32" s="7"/>
+      <c r="L32" s="6"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
@@ -2126,7 +2128,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L33" s="7"/>
+      <c r="L33" s="6"/>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
@@ -2153,7 +2155,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L34" s="7"/>
+      <c r="L34" s="6"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
@@ -2180,7 +2182,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L35" s="7"/>
+      <c r="L35" s="6"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
@@ -2204,7 +2206,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L36" s="7"/>
+      <c r="L36" s="6"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -2231,7 +2233,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L37" s="7"/>
+      <c r="L37" s="6"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
@@ -2255,7 +2257,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L38" s="7"/>
+      <c r="L38" s="6"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
@@ -2279,7 +2281,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L39" s="7"/>
+      <c r="L39" s="6"/>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
@@ -2305,7 +2307,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_swd_clk</v>
       </c>
-      <c r="L40" s="8" t="s">
+      <c r="L40" s="7" t="s">
         <v>234</v>
       </c>
     </row>
@@ -2333,7 +2335,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_swd_io</v>
       </c>
-      <c r="L41" s="8" t="s">
+      <c r="L41" s="7" t="s">
         <v>235</v>
       </c>
     </row>
@@ -2364,7 +2366,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_uatx</v>
       </c>
-      <c r="L42" s="7"/>
+      <c r="L42" s="6"/>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
@@ -2393,7 +2395,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_uarx</v>
       </c>
-      <c r="L43" s="7"/>
+      <c r="L43" s="6"/>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
@@ -2425,7 +2427,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO2</v>
       </c>
-      <c r="L44" s="8" t="s">
+      <c r="L44" s="7" t="s">
         <v>233</v>
       </c>
     </row>
@@ -2459,7 +2461,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO3</v>
       </c>
-      <c r="L45" s="8" t="s">
+      <c r="L45" s="7" t="s">
         <v>232</v>
       </c>
     </row>
@@ -2493,7 +2495,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO0</v>
       </c>
-      <c r="L46" s="7"/>
+      <c r="L46" s="6"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
@@ -2525,7 +2527,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO1</v>
       </c>
-      <c r="L47" s="7"/>
+      <c r="L47" s="6"/>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
@@ -2534,7 +2536,7 @@
       <c r="C48" t="s">
         <v>94</v>
       </c>
-      <c r="D48" s="5" t="s">
+      <c r="D48" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F48" s="2" t="s">
@@ -2551,7 +2553,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L48" s="7"/>
+      <c r="L48" s="6"/>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
@@ -2560,7 +2562,7 @@
       <c r="C49" t="s">
         <v>94</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F49" s="2" t="s">
@@ -2577,7 +2579,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L49" s="7"/>
+      <c r="L49" s="6"/>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
@@ -2586,7 +2588,7 @@
       <c r="C50" t="s">
         <v>157</v>
       </c>
-      <c r="D50" s="5" t="s">
+      <c r="D50" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F50" s="2" t="s">
@@ -2603,7 +2605,7 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-      <c r="L50" s="7"/>
+      <c r="L50" s="6"/>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
@@ -2612,7 +2614,7 @@
       <c r="C51" t="s">
         <v>157</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F51" s="2" t="s">
@@ -2637,7 +2639,7 @@
       <c r="C52" t="s">
         <v>158</v>
       </c>
-      <c r="D52" s="5" t="s">
+      <c r="D52" s="4" t="s">
         <v>218</v>
       </c>
       <c r="J52" t="str">
@@ -2656,7 +2658,7 @@
       <c r="C53" t="s">
         <v>158</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="4" t="s">
         <v>218</v>
       </c>
       <c r="J53" t="str">
@@ -2675,7 +2677,7 @@
       <c r="C54" t="s">
         <v>159</v>
       </c>
-      <c r="D54" s="5" t="s">
+      <c r="D54" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F54" s="2" t="s">
@@ -2697,7 +2699,7 @@
       <c r="C55" t="s">
         <v>159</v>
       </c>
-      <c r="D55" s="5" t="s">
+      <c r="D55" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F55" s="2" t="s">
@@ -2719,7 +2721,7 @@
       <c r="C56" t="s">
         <v>160</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="4" t="s">
         <v>220</v>
       </c>
       <c r="J56" t="str">
@@ -2738,7 +2740,7 @@
       <c r="C57" t="s">
         <v>161</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="4" t="s">
         <v>220</v>
       </c>
       <c r="J57" t="str">
@@ -2763,7 +2765,7 @@
       <c r="F58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I58" s="6" t="s">
+      <c r="I58" s="5" t="s">
         <v>264</v>
       </c>
       <c r="J58" t="str">
@@ -2785,7 +2787,7 @@
       <c r="F59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="6" t="s">
+      <c r="I59" s="5" t="s">
         <v>262</v>
       </c>
       <c r="J59" t="str">
@@ -2807,7 +2809,7 @@
       <c r="C60" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="6" t="s">
+      <c r="I60" s="5" t="s">
         <v>263</v>
       </c>
       <c r="J60" t="str">
@@ -3312,7 +3314,7 @@
       <c r="C79" t="s">
         <v>163</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J79" t="str">
@@ -3331,7 +3333,7 @@
       <c r="C80" t="s">
         <v>164</v>
       </c>
-      <c r="D80" s="5" t="s">
+      <c r="D80" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J80" t="str">
@@ -3350,7 +3352,7 @@
       <c r="C81" t="s">
         <v>165</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J81" t="str">
@@ -3369,7 +3371,7 @@
       <c r="C82" t="s">
         <v>166</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J82" t="str">
@@ -3388,7 +3390,7 @@
       <c r="C83" t="s">
         <v>167</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J83" t="str">
@@ -3407,7 +3409,7 @@
       <c r="C84" t="s">
         <v>168</v>
       </c>
-      <c r="D84" s="5" t="s">
+      <c r="D84" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J84" t="str">
@@ -3426,7 +3428,7 @@
       <c r="C85" t="s">
         <v>169</v>
       </c>
-      <c r="D85" s="5" t="s">
+      <c r="D85" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J85" t="str">
@@ -3445,7 +3447,7 @@
       <c r="C86" t="s">
         <v>170</v>
       </c>
-      <c r="D86" s="5" t="s">
+      <c r="D86" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J86" t="str">
@@ -3464,7 +3466,7 @@
       <c r="C87" t="s">
         <v>171</v>
       </c>
-      <c r="D87" s="5" t="s">
+      <c r="D87" s="4" t="s">
         <v>221</v>
       </c>
       <c r="J87" t="str">
@@ -3486,7 +3488,7 @@
       <c r="C88" t="s">
         <v>195</v>
       </c>
-      <c r="F88" s="1" t="s">
+      <c r="F88" s="8" t="s">
         <v>138</v>
       </c>
       <c r="H88" s="2" t="s">
@@ -3514,7 +3516,9 @@
       <c r="E89" t="s">
         <v>102</v>
       </c>
-      <c r="F89" s="4"/>
+      <c r="F89" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="I89" s="3" t="s">
         <v>252</v>
       </c>
@@ -3540,7 +3544,7 @@
       <c r="D90" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="F90" s="1" t="s">
+      <c r="F90" s="8" t="s">
         <v>139</v>
       </c>
       <c r="H90" s="2" t="s">
@@ -3571,6 +3575,9 @@
       <c r="E91" t="s">
         <v>104</v>
       </c>
+      <c r="F91" s="1" t="s">
+        <v>139</v>
+      </c>
       <c r="I91" s="3" t="s">
         <v>253</v>
       </c>
@@ -3590,7 +3597,7 @@
       <c r="C92" t="s">
         <v>94</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F92" s="2" t="s">
@@ -3615,7 +3622,7 @@
       <c r="C93" t="s">
         <v>94</v>
       </c>
-      <c r="D93" s="5" t="s">
+      <c r="D93" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F93" s="2" t="s">
@@ -3637,7 +3644,7 @@
       <c r="C94" t="s">
         <v>94</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F94" s="2" t="s">
@@ -3659,7 +3666,7 @@
       <c r="C95" t="s">
         <v>94</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="4" t="s">
         <v>218</v>
       </c>
       <c r="F95" s="2" t="s">
@@ -3683,7 +3690,7 @@
       <c r="C97" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D97" s="5" t="s">
+      <c r="D97" s="4" t="s">
         <v>270</v>
       </c>
       <c r="H97" t="s">
@@ -3698,7 +3705,7 @@
       <c r="F98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I98" s="6" t="s">
+      <c r="I98" s="5" t="s">
         <v>276</v>
       </c>
     </row>
@@ -3709,12 +3716,12 @@
       <c r="F99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I99" s="6" t="s">
+      <c r="I99" s="5" t="s">
         <v>274</v>
       </c>
     </row>
     <row r="100" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I100" s="6" t="s">
+      <c r="I100" s="5" t="s">
         <v>275</v>
       </c>
     </row>

--- a/PCBs/beaglebone_pinout_concept.xlsx
+++ b/PCBs/beaglebone_pinout_concept.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{6E939501-2166-4369-9621-0FA7DF1C5C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F605D2B-3794-4807-A0B9-3F845110B597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17484" yWindow="2388" windowWidth="21828" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="828" yWindow="4320" windowWidth="21708" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="395" uniqueCount="284">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="397" uniqueCount="286">
   <si>
     <t>P8_01</t>
   </si>
@@ -879,7 +879,13 @@
     <t>copy-pin</t>
   </si>
   <si>
-    <t>ShepV2.1-Chg</t>
+    <t>ShepV2.1/2.2-Chg</t>
+  </si>
+  <si>
+    <t>EN_Recorder</t>
+  </si>
+  <si>
+    <t>EN_Emulator</t>
   </si>
 </sst>
 </file>
@@ -1019,7 +1025,7 @@
     <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="copy-dsc" dataDxfId="0">
       <calculatedColumnFormula>Tabelle1[[#This Row],[ShepV2-FN]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{6023C99F-0439-4A92-ABC4-3DD041F85455}" name="ShepV2.1-Chg"/>
+    <tableColumn id="12" xr3:uid="{6023C99F-0439-4A92-ABC4-3DD041F85455}" name="ShepV2.1/2.2-Chg"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1327,8 +1333,8 @@
   </sheetPr>
   <dimension ref="A1:L104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F105" sqref="F105"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="L61" activeCellId="1" sqref="L63 L61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2840,6 +2846,9 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
+      <c r="L61" s="7" t="s">
+        <v>284</v>
+      </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
@@ -2882,6 +2891,9 @@
       <c r="K63">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
+      </c>
+      <c r="L63" s="7" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.3">

--- a/PCBs/beaglebone_pinout_concept.xlsx
+++ b/PCBs/beaglebone_pinout_concept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{0F605D2B-3794-4807-A0B9-3F845110B597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{49DD999D-7EB7-4C2B-9761-BCD9F9ECDB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="4320" windowWidth="21708" windowHeight="20580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="11076" yWindow="252" windowWidth="24312" windowHeight="23688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="397" uniqueCount="286">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="417" uniqueCount="302">
   <si>
     <t>P8_01</t>
   </si>
@@ -886,6 +886,54 @@
   </si>
   <si>
     <t>EN_Emulator</t>
+  </si>
+  <si>
+    <t>ShepV2.3-FN</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO5</t>
+  </si>
+  <si>
+    <t>pru1_target_GPIO6</t>
+  </si>
+  <si>
+    <t>pru1_target_uart_tx</t>
+  </si>
+  <si>
+    <t>pru1_target_uart_rx</t>
+  </si>
+  <si>
+    <t>prgm_dir_TMS</t>
+  </si>
+  <si>
+    <t>prgm_dir_TDIO</t>
+  </si>
+  <si>
+    <t>prgm1_IO_jTDI</t>
+  </si>
+  <si>
+    <t>prgm1_CLK_jTCK</t>
+  </si>
+  <si>
+    <t>prgm2_IO_jTMS</t>
+  </si>
+  <si>
+    <t>prgm2_CLK_jTDO</t>
+  </si>
+  <si>
+    <t>target_GPIO6</t>
+  </si>
+  <si>
+    <t>target_GPIO5</t>
+  </si>
+  <si>
+    <t>target_dir1_gpio0to3</t>
+  </si>
+  <si>
+    <t>target_dir2_uart_tx</t>
+  </si>
+  <si>
+    <t>FREEEEEEEEEEEE</t>
   </si>
 </sst>
 </file>
@@ -917,7 +965,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -948,6 +996,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -961,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -971,11 +1025,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="4">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1004,28 +1064,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L95" totalsRowShown="0">
-  <autoFilter ref="A1:L95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M95" totalsRowShown="0">
+  <autoFilter ref="A1:M95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H95">
     <sortCondition ref="A1:A95"/>
   </sortState>
-  <tableColumns count="12">
+  <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PinHeader"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="GPIO"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
     <tableColumn id="8" xr3:uid="{8C433A76-0473-49F6-8F08-C993F448DC4D}" name="BB_Blocked"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="PRU"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ShepV1-FN" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ShepV1-FN" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="GPS-Capelet"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="nRF52"/>
     <tableColumn id="9" xr3:uid="{BB9EAF82-610F-41B6-A2D3-1D4677384262}" name="ShepV2-FN"/>
-    <tableColumn id="11" xr3:uid="{90E88DEF-CAC7-45D1-828A-EFFD1D0869D6}" name="copy-pin" dataDxfId="1">
+    <tableColumn id="11" xr3:uid="{90E88DEF-CAC7-45D1-828A-EFFD1D0869D6}" name="copy-pin" dataDxfId="2">
       <calculatedColumnFormula>Tabelle1[[#This Row],[PinHeader]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="copy-dsc" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="copy-dsc" dataDxfId="1">
       <calculatedColumnFormula>Tabelle1[[#This Row],[ShepV2-FN]]</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="12" xr3:uid="{6023C99F-0439-4A92-ABC4-3DD041F85455}" name="ShepV2.1/2.2-Chg"/>
+    <tableColumn id="13" xr3:uid="{54036102-03EB-4E8E-BEAE-88BCF54E0963}" name="ShepV2.3-FN" dataDxfId="0">
+      <calculatedColumnFormula>Tabelle1[[#This Row],[ShepV2-FN]]</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1331,10 +1394,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L104"/>
+  <dimension ref="A1:M104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="L61" activeCellId="1" sqref="L63 L61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1342,12 +1405,14 @@
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9" customWidth="1"/>
     <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="21.88671875" customWidth="1"/>
+    <col min="11" max="11" width="18.5546875" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" customWidth="1"/>
+    <col min="13" max="13" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1384,8 +1449,11 @@
       <c r="L1" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1410,7 +1478,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1435,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1457,7 +1525,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1479,7 +1547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1501,7 +1569,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1523,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1550,8 +1618,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS)</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M8" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>(GPS)</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1578,8 +1650,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS)</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M9" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>(GPS)</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1606,8 +1682,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS)</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M10" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>(GPS)</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1628,8 +1708,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>WD_ACK</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M11" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>WD_ACK</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1653,8 +1737,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru0_dbg_Led1</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M12" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru0_dbg_Led1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1678,8 +1766,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru0_dbg_Led0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M13" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru0_dbg_Led0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1700,8 +1792,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>EN_Shepherd</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M14" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>EN_Shepherd</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1719,8 +1815,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M15" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_GPIO0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1741,8 +1841,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO3</v>
       </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M16" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_GPIO3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1764,8 +1868,12 @@
         <v>target_GPIO2</v>
       </c>
       <c r="L17" s="6"/>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M17" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_GPIO2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1784,8 +1892,12 @@
         <v>target_GPIO1</v>
       </c>
       <c r="L18" s="6"/>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M18" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_GPIO1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1804,8 +1916,12 @@
         <v>BTN Sense</v>
       </c>
       <c r="L19" s="6"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M19" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>BTN Sense</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1827,8 +1943,12 @@
         <v>BTN Led</v>
       </c>
       <c r="L20" s="6"/>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M20" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>BTN Led</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1851,7 +1971,7 @@
       </c>
       <c r="L21" s="6"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1874,7 +1994,7 @@
       </c>
       <c r="L22" s="6"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1894,7 +2014,7 @@
       </c>
       <c r="L23" s="6"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1914,7 +2034,7 @@
       </c>
       <c r="L24" s="6"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1934,7 +2054,7 @@
       </c>
       <c r="L25" s="6"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1954,7 +2074,7 @@
       </c>
       <c r="L26" s="6"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1973,8 +2093,12 @@
         <v>target_GPIO4</v>
       </c>
       <c r="L27" s="6"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M27" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_GPIO4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2001,8 +2125,11 @@
       <c r="L28" s="7" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M28" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2030,8 +2157,12 @@
         <v>pru1_dbg_Led0</v>
       </c>
       <c r="L29" s="6"/>
-    </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M29" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru1_dbg_Led0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2058,8 +2189,11 @@
       <c r="L30" s="7" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M30" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2087,8 +2221,12 @@
         <v>pru1_dbg_Led1</v>
       </c>
       <c r="L31" s="6"/>
-    </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M31" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru1_dbg_Led1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2111,8 +2249,11 @@
         <v>0</v>
       </c>
       <c r="L32" s="6"/>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M32" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2135,8 +2276,11 @@
         <v>0</v>
       </c>
       <c r="L33" s="6"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M33" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2162,8 +2306,11 @@
         <v>0</v>
       </c>
       <c r="L34" s="6"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M34" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2189,8 +2336,11 @@
         <v>0</v>
       </c>
       <c r="L35" s="6"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M35" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2213,8 +2363,11 @@
         <v>0</v>
       </c>
       <c r="L36" s="6"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M36" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2240,8 +2393,11 @@
         <v>0</v>
       </c>
       <c r="L37" s="6"/>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M37" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2264,8 +2420,11 @@
         <v>0</v>
       </c>
       <c r="L38" s="6"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M38" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2288,8 +2447,11 @@
         <v>0</v>
       </c>
       <c r="L39" s="6"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M39" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2316,8 +2478,11 @@
       <c r="L40" s="7" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M40" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2344,8 +2509,11 @@
       <c r="L41" s="7" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M41" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2373,8 +2541,11 @@
         <v>pru1_target_uatx</v>
       </c>
       <c r="L42" s="6"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M42" s="9" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2402,8 +2573,11 @@
         <v>pru1_target_uarx</v>
       </c>
       <c r="L43" s="6"/>
-    </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M43" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2436,8 +2610,12 @@
       <c r="L44" s="7" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M44" s="9" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru1_target_GPIO2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2470,8 +2648,12 @@
       <c r="L45" s="7" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M45" s="9" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru1_target_GPIO3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2502,8 +2684,12 @@
         <v>pru1_target_GPIO0</v>
       </c>
       <c r="L46" s="6"/>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M46" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru1_target_GPIO0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2534,8 +2720,12 @@
         <v>pru1_target_GPIO1</v>
       </c>
       <c r="L47" s="6"/>
-    </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M47" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru1_target_GPIO1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2560,8 +2750,12 @@
         <v>0</v>
       </c>
       <c r="L48" s="6"/>
-    </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M48">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2586,8 +2780,12 @@
         <v>0</v>
       </c>
       <c r="L49" s="6"/>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M49">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2612,8 +2810,12 @@
         <v>0</v>
       </c>
       <c r="L50" s="6"/>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M50">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2637,8 +2839,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M51">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2656,8 +2862,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M52">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2675,8 +2885,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M53">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2697,8 +2911,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M54">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2719,8 +2937,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M55">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2738,8 +2960,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M56">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2757,8 +2983,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M57">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -2782,8 +3012,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_io_SEL</v>
       </c>
-    </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M58" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_io_SEL</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -2804,8 +3038,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_io_EN</v>
       </c>
-    </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M59" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_io_EN</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -2826,8 +3064,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_Pwr_SEL</v>
       </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M60" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_Pwr_SEL</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -2849,8 +3091,11 @@
       <c r="L61" s="7" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M61" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -2869,8 +3114,11 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M62" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -2895,8 +3143,11 @@
       <c r="L63" s="7" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M63" s="10" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -2920,8 +3171,11 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_swd_clk</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M64" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -2945,8 +3199,11 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_swd_io</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M65" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -2973,8 +3230,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>Mem_SCL</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M66" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>Mem_SCL</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3001,8 +3262,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>Mem_SDA</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M67" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>Mem_SDA</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3029,8 +3294,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS_UART)</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M68" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>(GPS_UART)</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3057,8 +3326,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS_UART)</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M69" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>(GPS_UART)</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
@@ -3076,8 +3349,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>Mem_WP</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M70" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>Mem_WP</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3107,8 +3384,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_uart_tx</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M71" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_uart_tx</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -3135,8 +3416,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_ADC2_REC</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M72" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_CS_ADC2_REC</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -3166,8 +3451,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_uart_rx</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M73" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>target_uart_rx</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -3194,8 +3483,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_DAC_REC</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M74" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_CS_DAC_REC</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -3225,8 +3518,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_DAC_EMU</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M75" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_CS_DAC_EMU</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -3256,8 +3553,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_MOSI</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M76" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_MOSI</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -3287,8 +3588,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_MISO</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M77" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_MISO</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -3318,8 +3623,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_SCK</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M78" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_SCK</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -3337,8 +3646,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M79">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -3356,8 +3669,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M80">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -3375,8 +3692,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M81">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -3394,8 +3715,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M82">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -3413,8 +3738,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M83">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3432,8 +3761,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M84">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -3451,8 +3784,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M85">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -3470,8 +3807,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M86">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -3489,8 +3830,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M87">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -3517,8 +3862,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(shared pin)</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M88" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>(shared pin)</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>154</v>
       </c>
@@ -3542,8 +3891,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_ADC1_REC</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M89" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_CS_ADC1_REC</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -3573,8 +3926,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(shared pin)</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M90" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>(shared pin)</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -3601,8 +3958,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_ADC_EMU</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M91" t="str">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>pru/SPI_CS_ADC_EMU</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -3626,8 +3987,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M92">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -3648,8 +4013,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M93">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -3670,8 +4039,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M94">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -3692,8 +4065,12 @@
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="M95">
+        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>197</v>
       </c>

--- a/PCBs/beaglebone_pinout_concept.xlsx
+++ b/PCBs/beaglebone_pinout_concept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{49DD999D-7EB7-4C2B-9761-BCD9F9ECDB60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE7127C7-54EC-43C5-8C2A-78C2D66F9FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="11076" yWindow="252" windowWidth="24312" windowHeight="23688" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2688" yWindow="1752" windowWidth="23016" windowHeight="14376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -23,12 +23,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="417" uniqueCount="302">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="416" uniqueCount="301">
   <si>
     <t>P8_01</t>
   </si>
@@ -873,9 +880,6 @@
     <t>target_GPIO4</t>
   </si>
   <si>
-    <t>copy-dsc</t>
-  </si>
-  <si>
     <t>copy-pin</t>
   </si>
   <si>
@@ -903,12 +907,6 @@
     <t>pru1_target_uart_rx</t>
   </si>
   <si>
-    <t>prgm_dir_TMS</t>
-  </si>
-  <si>
-    <t>prgm_dir_TDIO</t>
-  </si>
-  <si>
     <t>prgm1_IO_jTDI</t>
   </si>
   <si>
@@ -934,6 +932,12 @@
   </si>
   <si>
     <t>FREEEEEEEEEEEE</t>
+  </si>
+  <si>
+    <t>prgm_dir1_TDIO</t>
+  </si>
+  <si>
+    <t>prgm_dir2_TMS</t>
   </si>
 </sst>
 </file>
@@ -1064,12 +1068,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:M95" totalsRowShown="0">
-  <autoFilter ref="A1:M95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabelle1" displayName="Tabelle1" ref="A1:L95" totalsRowShown="0">
+  <autoFilter ref="A1:L95" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H95">
     <sortCondition ref="A1:A95"/>
   </sortState>
-  <tableColumns count="13">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PinHeader"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="GPIO"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Name"/>
@@ -1078,16 +1082,13 @@
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="ShepV1-FN" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="GPS-Capelet"/>
     <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="nRF52"/>
-    <tableColumn id="9" xr3:uid="{BB9EAF82-610F-41B6-A2D3-1D4677384262}" name="ShepV2-FN"/>
     <tableColumn id="11" xr3:uid="{90E88DEF-CAC7-45D1-828A-EFFD1D0869D6}" name="copy-pin" dataDxfId="2">
       <calculatedColumnFormula>Tabelle1[[#This Row],[PinHeader]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="copy-dsc" dataDxfId="1">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[ShepV2-FN]]</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="ShepV2-FN" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{6023C99F-0439-4A92-ABC4-3DD041F85455}" name="ShepV2.1/2.2-Chg"/>
     <tableColumn id="13" xr3:uid="{54036102-03EB-4E8E-BEAE-88BCF54E0963}" name="ShepV2.3-FN" dataDxfId="0">
-      <calculatedColumnFormula>Tabelle1[[#This Row],[ShepV2-FN]]</calculatedColumnFormula>
+      <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1394,25 +1395,26 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M104"/>
+  <dimension ref="A1:L100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="2" max="2" width="7.33203125" customWidth="1"/>
     <col min="5" max="5" width="19.33203125" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" customWidth="1"/>
     <col min="7" max="7" width="12.88671875" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="9" width="18.44140625" customWidth="1"/>
-    <col min="11" max="11" width="18.5546875" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" customWidth="1"/>
-    <col min="13" max="13" width="16.109375" customWidth="1"/>
+    <col min="9" max="9" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="19.33203125" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>90</v>
       </c>
@@ -1438,22 +1440,19 @@
         <v>196</v>
       </c>
       <c r="I1" t="s">
+        <v>281</v>
+      </c>
+      <c r="J1" t="s">
         <v>223</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>282</v>
       </c>
-      <c r="K1" t="s">
-        <v>281</v>
-      </c>
       <c r="L1" t="s">
-        <v>283</v>
-      </c>
-      <c r="M1" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1469,16 +1468,12 @@
       <c r="G2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J2" t="str">
+      <c r="I2" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_01</v>
       </c>
-      <c r="K2">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1494,16 +1489,12 @@
       <c r="G3" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J3" t="str">
+      <c r="I3" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_02</v>
       </c>
-      <c r="K3">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1516,16 +1507,12 @@
       <c r="D4" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J4" t="str">
+      <c r="I4" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_03</v>
       </c>
-      <c r="K4">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1538,16 +1525,12 @@
       <c r="D5" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J5" t="str">
+      <c r="I5" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_04</v>
       </c>
-      <c r="K5">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1560,16 +1543,12 @@
       <c r="D6" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J6" t="str">
+      <c r="I6" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_05</v>
       </c>
-      <c r="K6">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1582,16 +1561,12 @@
       <c r="D7" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J7" t="str">
+      <c r="I7" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_06</v>
       </c>
-      <c r="K7">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1607,23 +1582,19 @@
       <c r="G8" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_07</v>
+      </c>
+      <c r="J8" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J8" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_07</v>
-      </c>
-      <c r="K8" t="str">
+      <c r="L8" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS)</v>
       </c>
-      <c r="M8" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>(GPS)</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1639,23 +1610,19 @@
       <c r="G9" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_08</v>
+      </c>
+      <c r="J9" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J9" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_08</v>
-      </c>
-      <c r="K9" t="str">
+      <c r="L9" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS)</v>
       </c>
-      <c r="M9" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>(GPS)</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1671,23 +1638,19 @@
       <c r="G10" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_09</v>
+      </c>
+      <c r="J10" s="3" t="s">
         <v>227</v>
       </c>
-      <c r="J10" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_09</v>
-      </c>
-      <c r="K10" t="str">
+      <c r="L10" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS)</v>
       </c>
-      <c r="M10" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>(GPS)</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1697,23 +1660,19 @@
       <c r="C11" t="s">
         <v>152</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_10</v>
+      </c>
+      <c r="J11" s="3" t="s">
         <v>239</v>
       </c>
-      <c r="J11" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_10</v>
-      </c>
-      <c r="K11" t="str">
+      <c r="L11" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>WD_ACK</v>
       </c>
-      <c r="M11" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>WD_ACK</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1726,23 +1685,19 @@
       <c r="F12" t="s">
         <v>116</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_11</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>266</v>
       </c>
-      <c r="J12" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_11</v>
-      </c>
-      <c r="K12" t="str">
+      <c r="L12" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru0_dbg_Led1</v>
       </c>
-      <c r="M12" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru0_dbg_Led1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1755,23 +1710,19 @@
       <c r="F13" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_12</v>
+      </c>
+      <c r="J13" s="3" t="s">
         <v>267</v>
       </c>
-      <c r="J13" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_12</v>
-      </c>
-      <c r="K13" t="str">
+      <c r="L13" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru0_dbg_Led0</v>
       </c>
-      <c r="M13" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru0_dbg_Led0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1781,46 +1732,38 @@
       <c r="F14" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="I14" s="3" t="s">
+      <c r="I14" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_13</v>
+      </c>
+      <c r="J14" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="J14" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_13</v>
-      </c>
-      <c r="K14" t="str">
+      <c r="L14" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>EN_Shepherd</v>
       </c>
-      <c r="M14" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>EN_Shepherd</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
       <c r="B15">
         <v>26</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="I15" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_14</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>258</v>
       </c>
-      <c r="J15" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_14</v>
-      </c>
-      <c r="K15" t="str">
+      <c r="L15" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO0</v>
       </c>
-      <c r="M15" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_GPIO0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1830,23 +1773,19 @@
       <c r="E16" t="s">
         <v>113</v>
       </c>
-      <c r="I16" s="5" t="s">
+      <c r="I16" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_15</v>
+      </c>
+      <c r="J16" s="5" t="s">
         <v>257</v>
       </c>
-      <c r="J16" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_15</v>
-      </c>
-      <c r="K16" t="str">
+      <c r="L16" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO3</v>
       </c>
-      <c r="M16" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_GPIO3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1856,72 +1795,60 @@
       <c r="E17" t="s">
         <v>112</v>
       </c>
-      <c r="I17" s="5" t="s">
+      <c r="I17" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_16</v>
+      </c>
+      <c r="J17" s="5" t="s">
         <v>256</v>
       </c>
-      <c r="J17" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_16</v>
-      </c>
-      <c r="K17" t="str">
+      <c r="K17" s="6"/>
+      <c r="L17" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO2</v>
       </c>
-      <c r="L17" s="6"/>
-      <c r="M17" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_GPIO2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
       <c r="B18">
         <v>27</v>
       </c>
-      <c r="I18" s="5" t="s">
+      <c r="I18" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_17</v>
+      </c>
+      <c r="J18" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="J18" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_17</v>
-      </c>
-      <c r="K18" t="str">
+      <c r="K18" s="6"/>
+      <c r="L18" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO1</v>
       </c>
-      <c r="L18" s="6"/>
-      <c r="M18" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_GPIO1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
       <c r="B19">
         <v>65</v>
       </c>
-      <c r="I19" s="3" t="s">
+      <c r="I19" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_18</v>
+      </c>
+      <c r="J19" s="3" t="s">
         <v>228</v>
       </c>
-      <c r="J19" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_18</v>
-      </c>
-      <c r="K19" t="str">
+      <c r="K19" s="6"/>
+      <c r="L19" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>BTN Sense</v>
       </c>
-      <c r="L19" s="6"/>
-      <c r="M19" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>BTN Sense</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1931,24 +1858,20 @@
       <c r="C20" t="s">
         <v>148</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_19</v>
+      </c>
+      <c r="J20" s="3" t="s">
         <v>229</v>
       </c>
-      <c r="J20" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_19</v>
-      </c>
-      <c r="K20" t="str">
+      <c r="K20" s="6"/>
+      <c r="L20" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>BTN Led</v>
       </c>
-      <c r="L20" s="6"/>
-      <c r="M20" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>BTN Led</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1961,17 +1884,13 @@
       <c r="E21" t="s">
         <v>110</v>
       </c>
-      <c r="J21" t="str">
+      <c r="I21" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_20</v>
       </c>
-      <c r="K21">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L21" s="6"/>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1984,17 +1903,13 @@
       <c r="E22" t="s">
         <v>111</v>
       </c>
-      <c r="J22" t="str">
+      <c r="I22" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_21</v>
       </c>
-      <c r="K22">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L22" s="6"/>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K22" s="6"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2004,17 +1919,13 @@
       <c r="D23" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J23" t="str">
+      <c r="I23" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_22</v>
       </c>
-      <c r="K23">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L23" s="6"/>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2024,17 +1935,13 @@
       <c r="D24" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J24" t="str">
+      <c r="I24" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_23</v>
       </c>
-      <c r="K24">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L24" s="6"/>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2044,17 +1951,13 @@
       <c r="D25" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J25" t="str">
+      <c r="I25" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_24</v>
       </c>
-      <c r="K25">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L25" s="6"/>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2064,41 +1967,33 @@
       <c r="D26" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="J26" t="str">
+      <c r="I26" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_25</v>
       </c>
-      <c r="K26">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L26" s="6"/>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K26" s="6"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>25</v>
       </c>
       <c r="B27">
         <v>61</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_26</v>
+      </c>
+      <c r="J27" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="J27" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_26</v>
-      </c>
-      <c r="K27" t="str">
+      <c r="K27" s="6"/>
+      <c r="L27" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_GPIO4</v>
       </c>
-      <c r="L27" s="6"/>
-      <c r="M27" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_GPIO4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2111,25 +2006,21 @@
       <c r="E28" t="s">
         <v>204</v>
       </c>
-      <c r="I28" s="3" t="s">
+      <c r="I28" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_27</v>
+      </c>
+      <c r="J28" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="J28" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_27</v>
-      </c>
-      <c r="K28" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_batOK</v>
-      </c>
-      <c r="L28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="M28" s="9" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L28" s="9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2145,24 +2036,20 @@
       <c r="F29" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="I29" s="3" t="s">
+      <c r="I29" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_28</v>
+      </c>
+      <c r="J29" s="3" t="s">
         <v>244</v>
       </c>
-      <c r="J29" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_28</v>
-      </c>
-      <c r="K29" t="str">
+      <c r="K29" s="6"/>
+      <c r="L29" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_dbg_Led0</v>
       </c>
-      <c r="L29" s="6"/>
-      <c r="M29" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_dbg_Led0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2175,25 +2062,21 @@
       <c r="E30" t="s">
         <v>206</v>
       </c>
-      <c r="I30" s="3" t="s">
+      <c r="I30" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_29</v>
+      </c>
+      <c r="J30" s="3" t="s">
         <v>279</v>
       </c>
-      <c r="J30" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_29</v>
-      </c>
-      <c r="K30" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_GPIO4</v>
-      </c>
-      <c r="L30" s="7" t="s">
+      <c r="K30" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="M30" s="9" t="s">
+      <c r="L30" s="9" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2209,24 +2092,20 @@
       <c r="F31" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="I31" s="3" t="s">
+      <c r="I31" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_30</v>
+      </c>
+      <c r="J31" s="3" t="s">
         <v>265</v>
       </c>
-      <c r="J31" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_30</v>
-      </c>
-      <c r="K31" t="str">
+      <c r="K31" s="6"/>
+      <c r="L31" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_dbg_Led1</v>
       </c>
-      <c r="L31" s="6"/>
-      <c r="M31" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_dbg_Led1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2239,21 +2118,17 @@
       <c r="D32" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I32" s="3"/>
-      <c r="J32" t="str">
+      <c r="I32" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_31</v>
       </c>
-      <c r="K32">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L32" s="6"/>
-      <c r="M32" s="9" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J32" s="3"/>
+      <c r="K32" s="6"/>
+      <c r="L32" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2266,21 +2141,17 @@
       <c r="D33" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I33" s="3"/>
-      <c r="J33" t="str">
+      <c r="I33" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_32</v>
       </c>
-      <c r="K33">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L33" s="6"/>
-      <c r="M33" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J33" s="3"/>
+      <c r="K33" s="6"/>
+      <c r="L33" s="9" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2296,21 +2167,17 @@
       <c r="F34" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="I34" s="3"/>
-      <c r="J34" t="str">
+      <c r="I34" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_33</v>
       </c>
-      <c r="K34">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L34" s="6"/>
-      <c r="M34" s="9" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J34" s="3"/>
+      <c r="K34" s="6"/>
+      <c r="L34" s="9" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2326,21 +2193,17 @@
       <c r="F35" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="I35" s="3"/>
-      <c r="J35" t="str">
+      <c r="I35" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_34</v>
       </c>
-      <c r="K35">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L35" s="6"/>
-      <c r="M35" s="9" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J35" s="3"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="9" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2353,21 +2216,17 @@
       <c r="D36" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I36" s="3"/>
-      <c r="J36" t="str">
+      <c r="I36" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_35</v>
       </c>
-      <c r="K36">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L36" s="6"/>
-      <c r="M36" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J36" s="3"/>
+      <c r="K36" s="6"/>
+      <c r="L36" s="9" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -2383,21 +2242,17 @@
       <c r="F37" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="I37" s="3"/>
-      <c r="J37" t="str">
+      <c r="I37" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_36</v>
       </c>
-      <c r="K37">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L37" s="6"/>
-      <c r="M37" s="9" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J37" s="3"/>
+      <c r="K37" s="6"/>
+      <c r="L37" s="9" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -2410,21 +2265,17 @@
       <c r="D38" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I38" s="3"/>
-      <c r="J38" t="str">
+      <c r="I38" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_37</v>
       </c>
-      <c r="K38">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L38" s="6"/>
-      <c r="M38" s="9" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J38" s="3"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="9" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -2437,21 +2288,17 @@
       <c r="D39" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="I39" s="3"/>
-      <c r="J39" t="str">
+      <c r="I39" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P8_38</v>
       </c>
-      <c r="K39">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L39" s="6"/>
-      <c r="M39" s="9" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J39" s="3"/>
+      <c r="K39" s="6"/>
+      <c r="L39" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -2464,25 +2311,21 @@
       <c r="E40" t="s">
         <v>208</v>
       </c>
-      <c r="I40" s="3" t="s">
+      <c r="I40" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_39</v>
+      </c>
+      <c r="J40" s="3" t="s">
         <v>233</v>
       </c>
-      <c r="J40" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_39</v>
-      </c>
-      <c r="K40" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_swd_clk</v>
-      </c>
-      <c r="L40" s="7" t="s">
+      <c r="K40" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M40" s="9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L40" s="9" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -2495,25 +2338,21 @@
       <c r="E41" t="s">
         <v>209</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_40</v>
+      </c>
+      <c r="J41" s="3" t="s">
         <v>232</v>
       </c>
-      <c r="J41" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_40</v>
-      </c>
-      <c r="K41" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_swd_io</v>
-      </c>
-      <c r="L41" s="7" t="s">
+      <c r="K41" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="M41" s="9" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L41" s="9" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -2529,23 +2368,19 @@
       <c r="F42" t="s">
         <v>123</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_41</v>
+      </c>
+      <c r="J42" s="3" t="s">
         <v>230</v>
       </c>
-      <c r="J42" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_41</v>
-      </c>
-      <c r="K42" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_uatx</v>
-      </c>
-      <c r="L42" s="6"/>
-      <c r="M42" s="9" t="s">
+      <c r="K42" s="6"/>
+      <c r="L42" s="9" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -2561,23 +2396,19 @@
       <c r="F43" t="s">
         <v>122</v>
       </c>
-      <c r="I43" s="3" t="s">
+      <c r="I43" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_42</v>
+      </c>
+      <c r="J43" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="J43" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_42</v>
-      </c>
-      <c r="K43" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_uarx</v>
-      </c>
-      <c r="L43" s="6"/>
-      <c r="M43" s="9" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K43" s="6"/>
+      <c r="L43" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -2596,26 +2427,22 @@
       <c r="H44" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="I44" s="3" t="s">
+      <c r="I44" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_43</v>
+      </c>
+      <c r="J44" s="3" t="s">
         <v>234</v>
       </c>
-      <c r="J44" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_43</v>
-      </c>
-      <c r="K44" t="str">
+      <c r="K44" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L44" s="9" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO2</v>
       </c>
-      <c r="L44" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="M44" s="9" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_GPIO2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -2634,26 +2461,22 @@
       <c r="H45" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="I45" s="3" t="s">
+      <c r="I45" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_44</v>
+      </c>
+      <c r="J45" s="3" t="s">
         <v>235</v>
       </c>
-      <c r="J45" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_44</v>
-      </c>
-      <c r="K45" t="str">
+      <c r="K45" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="L45" s="9" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO3</v>
       </c>
-      <c r="L45" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="M45" s="9" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_GPIO3</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -2672,24 +2495,20 @@
       <c r="H46" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="I46" s="3" t="s">
+      <c r="I46" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_45</v>
+      </c>
+      <c r="J46" s="3" t="s">
         <v>236</v>
       </c>
-      <c r="J46" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_45</v>
-      </c>
-      <c r="K46" t="str">
+      <c r="K46" s="6"/>
+      <c r="L46" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO0</v>
       </c>
-      <c r="L46" s="6"/>
-      <c r="M46" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_GPIO0</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2708,24 +2527,20 @@
       <c r="H47" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="I47" s="3" t="s">
+      <c r="I47" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P8_46</v>
+      </c>
+      <c r="J47" s="3" t="s">
         <v>237</v>
       </c>
-      <c r="J47" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P8_46</v>
-      </c>
-      <c r="K47" t="str">
+      <c r="K47" s="6"/>
+      <c r="L47" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru1_target_GPIO1</v>
       </c>
-      <c r="L47" s="6"/>
-      <c r="M47" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru1_target_GPIO1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>45</v>
       </c>
@@ -2741,21 +2556,14 @@
       <c r="G48" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J48" t="str">
+      <c r="I48" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_01</v>
       </c>
-      <c r="K48">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L48" s="6"/>
-      <c r="M48">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K48" s="6"/>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>46</v>
       </c>
@@ -2771,21 +2579,14 @@
       <c r="G49" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J49" t="str">
+      <c r="I49" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_02</v>
       </c>
-      <c r="K49">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L49" s="6"/>
-      <c r="M49">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K49" s="6"/>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>47</v>
       </c>
@@ -2801,21 +2602,14 @@
       <c r="G50" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J50" t="str">
+      <c r="I50" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_03</v>
       </c>
-      <c r="K50">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L50" s="6"/>
-      <c r="M50">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="K50" s="6"/>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>48</v>
       </c>
@@ -2831,20 +2625,13 @@
       <c r="G51" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="J51" t="str">
+      <c r="I51" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_04</v>
       </c>
-      <c r="K51">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M51">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>49</v>
       </c>
@@ -2854,20 +2641,13 @@
       <c r="D52" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J52" t="str">
+      <c r="I52" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_05</v>
       </c>
-      <c r="K52">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M52">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>50</v>
       </c>
@@ -2877,20 +2657,13 @@
       <c r="D53" s="4" t="s">
         <v>218</v>
       </c>
-      <c r="J53" t="str">
+      <c r="I53" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_06</v>
       </c>
-      <c r="K53">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M53">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -2903,20 +2676,13 @@
       <c r="F54" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J54" t="str">
+      <c r="I54" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_07</v>
       </c>
-      <c r="K54">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M54">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>52</v>
       </c>
@@ -2929,20 +2695,13 @@
       <c r="F55" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="J55" t="str">
+      <c r="I55" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_08</v>
       </c>
-      <c r="K55">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M55">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>53</v>
       </c>
@@ -2952,20 +2711,13 @@
       <c r="D56" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J56" t="str">
+      <c r="I56" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_09</v>
       </c>
-      <c r="K56">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M56">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>54</v>
       </c>
@@ -2975,20 +2727,13 @@
       <c r="D57" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="J57" t="str">
+      <c r="I57" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_10</v>
       </c>
-      <c r="K57">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M57">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>55</v>
       </c>
@@ -3001,23 +2746,19 @@
       <c r="F58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="I58" s="5" t="s">
+      <c r="I58" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_11</v>
+      </c>
+      <c r="J58" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="J58" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_11</v>
-      </c>
-      <c r="K58" t="str">
+      <c r="L58" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_io_SEL</v>
       </c>
-      <c r="M58" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_io_SEL</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>56</v>
       </c>
@@ -3027,23 +2768,19 @@
       <c r="F59" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="I59" s="5" t="s">
+      <c r="I59" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_12</v>
+      </c>
+      <c r="J59" s="5" t="s">
         <v>262</v>
       </c>
-      <c r="J59" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_12</v>
-      </c>
-      <c r="K59" t="str">
+      <c r="L59" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_io_EN</v>
       </c>
-      <c r="M59" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_io_EN</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>57</v>
       </c>
@@ -3053,23 +2790,19 @@
       <c r="C60" t="s">
         <v>194</v>
       </c>
-      <c r="I60" s="5" t="s">
+      <c r="I60" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_13</v>
+      </c>
+      <c r="J60" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="J60" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_13</v>
-      </c>
-      <c r="K60" t="str">
+      <c r="L60" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_Pwr_SEL</v>
       </c>
-      <c r="M60" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_Pwr_SEL</v>
-      </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>58</v>
       </c>
@@ -3079,23 +2812,19 @@
       <c r="C61" t="s">
         <v>193</v>
       </c>
-      <c r="I61" s="3"/>
-      <c r="J61" t="str">
+      <c r="I61" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_14</v>
       </c>
-      <c r="K61">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L61" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="M61" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J61" s="3"/>
+      <c r="K61" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="L61" s="10" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>59</v>
       </c>
@@ -3105,20 +2834,16 @@
       <c r="F62" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="3"/>
-      <c r="J62" t="str">
+      <c r="I62" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_15</v>
       </c>
-      <c r="K62">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M62" s="11" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J62" s="3"/>
+      <c r="L62" s="11" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>60</v>
       </c>
@@ -3131,23 +2856,19 @@
       <c r="F63" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="I63" s="3"/>
-      <c r="J63" t="str">
+      <c r="I63" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_16</v>
       </c>
-      <c r="K63">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="L63" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="M63" s="10" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="J63" s="3"/>
+      <c r="K63" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="L63" s="10" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>61</v>
       </c>
@@ -3160,22 +2881,18 @@
       <c r="F64" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="I64" s="3" t="s">
+      <c r="I64" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_17</v>
+      </c>
+      <c r="J64" s="3" t="s">
         <v>242</v>
       </c>
-      <c r="J64" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_17</v>
-      </c>
-      <c r="K64" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_swd_clk</v>
-      </c>
-      <c r="M64" s="9" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L64" s="9" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>62</v>
       </c>
@@ -3188,22 +2905,18 @@
       <c r="F65" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="I65" s="3" t="s">
+      <c r="I65" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_18</v>
+      </c>
+      <c r="J65" s="3" t="s">
         <v>241</v>
       </c>
-      <c r="J65" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_18</v>
-      </c>
-      <c r="K65" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_swd_io</v>
-      </c>
-      <c r="M65" s="9" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="L65" s="9" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>63</v>
       </c>
@@ -3219,23 +2932,19 @@
       <c r="F66" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_19</v>
+      </c>
+      <c r="J66" s="3" t="s">
         <v>224</v>
       </c>
-      <c r="J66" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_19</v>
-      </c>
-      <c r="K66" t="str">
+      <c r="L66" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>Mem_SCL</v>
       </c>
-      <c r="M66" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>Mem_SCL</v>
-      </c>
-    </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>64</v>
       </c>
@@ -3251,23 +2960,19 @@
       <c r="F67" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_20</v>
+      </c>
+      <c r="J67" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="J67" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_20</v>
-      </c>
-      <c r="K67" t="str">
+      <c r="L67" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>Mem_SDA</v>
       </c>
-      <c r="M67" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>Mem_SDA</v>
-      </c>
-    </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>65</v>
       </c>
@@ -3283,23 +2988,19 @@
       <c r="G68" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_21</v>
+      </c>
+      <c r="J68" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="J68" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_21</v>
-      </c>
-      <c r="K68" t="str">
+      <c r="L68" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS_UART)</v>
       </c>
-      <c r="M68" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>(GPS_UART)</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>66</v>
       </c>
@@ -3315,46 +3016,38 @@
       <c r="G69" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_22</v>
+      </c>
+      <c r="J69" s="3" t="s">
         <v>226</v>
       </c>
-      <c r="J69" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_22</v>
-      </c>
-      <c r="K69" t="str">
+      <c r="L69" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(GPS_UART)</v>
       </c>
-      <c r="M69" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>(GPS_UART)</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>67</v>
       </c>
       <c r="B70">
         <v>49</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_23</v>
+      </c>
+      <c r="J70" s="3" t="s">
         <v>238</v>
       </c>
-      <c r="J70" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_23</v>
-      </c>
-      <c r="K70" t="str">
+      <c r="L70" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>Mem_WP</v>
       </c>
-      <c r="M70" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>Mem_WP</v>
-      </c>
-    </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>68</v>
       </c>
@@ -3373,23 +3066,19 @@
       <c r="H71" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_24</v>
+      </c>
+      <c r="J71" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="J71" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_24</v>
-      </c>
-      <c r="K71" t="str">
+      <c r="L71" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_uart_tx</v>
       </c>
-      <c r="M71" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_uart_tx</v>
-      </c>
-    </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>69</v>
       </c>
@@ -3405,23 +3094,19 @@
       <c r="F72" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_25</v>
+      </c>
+      <c r="J72" s="3" t="s">
         <v>250</v>
       </c>
-      <c r="J72" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_25</v>
-      </c>
-      <c r="K72" t="str">
+      <c r="L72" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_ADC2_REC</v>
       </c>
-      <c r="M72" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_CS_ADC2_REC</v>
-      </c>
-    </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>70</v>
       </c>
@@ -3440,23 +3125,19 @@
       <c r="H73" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I73" s="3" t="s">
+      <c r="I73" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_26</v>
+      </c>
+      <c r="J73" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="J73" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_26</v>
-      </c>
-      <c r="K73" t="str">
+      <c r="L73" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>target_uart_rx</v>
       </c>
-      <c r="M73" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>target_uart_rx</v>
-      </c>
-    </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>71</v>
       </c>
@@ -3472,23 +3153,19 @@
       <c r="F74" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_27</v>
+      </c>
+      <c r="J74" s="3" t="s">
         <v>249</v>
       </c>
-      <c r="J74" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_27</v>
-      </c>
-      <c r="K74" t="str">
+      <c r="L74" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_DAC_REC</v>
       </c>
-      <c r="M74" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_CS_DAC_REC</v>
-      </c>
-    </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>72</v>
       </c>
@@ -3507,23 +3184,19 @@
       <c r="F75" s="1" t="s">
         <v>134</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_28</v>
+      </c>
+      <c r="J75" s="3" t="s">
         <v>248</v>
       </c>
-      <c r="J75" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_28</v>
-      </c>
-      <c r="K75" t="str">
+      <c r="L75" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_DAC_EMU</v>
       </c>
-      <c r="M75" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_CS_DAC_EMU</v>
-      </c>
-    </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>73</v>
       </c>
@@ -3542,23 +3215,19 @@
       <c r="F76" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_29</v>
+      </c>
+      <c r="J76" s="3" t="s">
         <v>247</v>
       </c>
-      <c r="J76" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_29</v>
-      </c>
-      <c r="K76" t="str">
+      <c r="L76" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_MOSI</v>
       </c>
-      <c r="M76" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_MOSI</v>
-      </c>
-    </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>74</v>
       </c>
@@ -3577,23 +3246,19 @@
       <c r="F77" s="1" t="s">
         <v>136</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_30</v>
+      </c>
+      <c r="J77" s="3" t="s">
         <v>246</v>
       </c>
-      <c r="J77" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_30</v>
-      </c>
-      <c r="K77" t="str">
+      <c r="L77" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_MISO</v>
       </c>
-      <c r="M77" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_MISO</v>
-      </c>
-    </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>75</v>
       </c>
@@ -3612,23 +3277,19 @@
       <c r="F78" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_31</v>
+      </c>
+      <c r="J78" s="3" t="s">
         <v>251</v>
       </c>
-      <c r="J78" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_31</v>
-      </c>
-      <c r="K78" t="str">
+      <c r="L78" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_SCK</v>
       </c>
-      <c r="M78" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_SCK</v>
-      </c>
-    </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>76</v>
       </c>
@@ -3638,20 +3299,12 @@
       <c r="D79" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J79" t="str">
+      <c r="I79" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_32</v>
       </c>
-      <c r="K79">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M79">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>77</v>
       </c>
@@ -3661,20 +3314,12 @@
       <c r="D80" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J80" t="str">
+      <c r="I80" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_33</v>
       </c>
-      <c r="K80">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M80">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>78</v>
       </c>
@@ -3684,20 +3329,12 @@
       <c r="D81" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J81" t="str">
+      <c r="I81" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_34</v>
       </c>
-      <c r="K81">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M81">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>79</v>
       </c>
@@ -3707,20 +3344,12 @@
       <c r="D82" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J82" t="str">
+      <c r="I82" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_35</v>
       </c>
-      <c r="K82">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M82">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>80</v>
       </c>
@@ -3730,20 +3359,12 @@
       <c r="D83" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J83" t="str">
+      <c r="I83" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_36</v>
       </c>
-      <c r="K83">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M83">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>81</v>
       </c>
@@ -3753,20 +3374,12 @@
       <c r="D84" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J84" t="str">
+      <c r="I84" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_37</v>
       </c>
-      <c r="K84">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M84">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>82</v>
       </c>
@@ -3776,20 +3389,12 @@
       <c r="D85" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J85" t="str">
+      <c r="I85" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_38</v>
       </c>
-      <c r="K85">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M85">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>83</v>
       </c>
@@ -3799,20 +3404,12 @@
       <c r="D86" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J86" t="str">
+      <c r="I86" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_39</v>
       </c>
-      <c r="K86">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M86">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>84</v>
       </c>
@@ -3822,20 +3419,12 @@
       <c r="D87" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="J87" t="str">
+      <c r="I87" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_40</v>
       </c>
-      <c r="K87">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M87">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>153</v>
       </c>
@@ -3851,23 +3440,19 @@
       <c r="H88" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="I88" s="3" t="s">
+      <c r="I88" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_41A</v>
+      </c>
+      <c r="J88" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J88" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_41A</v>
-      </c>
-      <c r="K88" t="str">
+      <c r="L88" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(shared pin)</v>
       </c>
-      <c r="M88" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>(shared pin)</v>
-      </c>
-    </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>154</v>
       </c>
@@ -3880,23 +3465,19 @@
       <c r="F89" s="1" t="s">
         <v>138</v>
       </c>
-      <c r="I89" s="3" t="s">
+      <c r="I89" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_41B</v>
+      </c>
+      <c r="J89" s="3" t="s">
         <v>252</v>
       </c>
-      <c r="J89" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_41B</v>
-      </c>
-      <c r="K89" t="str">
+      <c r="L89" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_ADC1_REC</v>
       </c>
-      <c r="M89" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_CS_ADC1_REC</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>155</v>
       </c>
@@ -3915,23 +3496,19 @@
       <c r="H90" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="I90" s="3" t="s">
+      <c r="I90" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_42A</v>
+      </c>
+      <c r="J90" s="3" t="s">
         <v>243</v>
       </c>
-      <c r="J90" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_42A</v>
-      </c>
-      <c r="K90" t="str">
+      <c r="L90" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>(shared pin)</v>
       </c>
-      <c r="M90" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>(shared pin)</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>156</v>
       </c>
@@ -3947,23 +3524,19 @@
       <c r="F91" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="I91" s="3" t="s">
+      <c r="I91" t="str">
+        <f>Tabelle1[[#This Row],[PinHeader]]</f>
+        <v>P9_42B</v>
+      </c>
+      <c r="J91" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="J91" t="str">
-        <f>Tabelle1[[#This Row],[PinHeader]]</f>
-        <v>P9_42B</v>
-      </c>
-      <c r="K91" t="str">
+      <c r="L91" s="3" t="str">
         <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
         <v>pru/SPI_CS_ADC_EMU</v>
       </c>
-      <c r="M91" t="str">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>pru/SPI_CS_ADC_EMU</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>85</v>
       </c>
@@ -3979,20 +3552,12 @@
       <c r="H92" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J92" t="str">
+      <c r="I92" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_43</v>
       </c>
-      <c r="K92">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M92">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>86</v>
       </c>
@@ -4005,20 +3570,12 @@
       <c r="F93" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J93" t="str">
+      <c r="I93" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_44</v>
       </c>
-      <c r="K93">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M93">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>87</v>
       </c>
@@ -4031,20 +3588,12 @@
       <c r="F94" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J94" t="str">
+      <c r="I94" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_45</v>
       </c>
-      <c r="K94">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M94">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>89</v>
       </c>
@@ -4057,25 +3606,17 @@
       <c r="F95" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="J95" t="str">
+      <c r="I95" t="str">
         <f>Tabelle1[[#This Row],[PinHeader]]</f>
         <v>P9_46</v>
       </c>
-      <c r="K95">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-      <c r="M95">
-        <f>Tabelle1[[#This Row],[ShepV2-FN]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="H96" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="97" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:10" x14ac:dyDescent="0.3">
       <c r="C97" s="2" t="s">
         <v>222</v>
       </c>
@@ -4085,44 +3626,37 @@
       <c r="H97" t="s">
         <v>198</v>
       </c>
-      <c r="I97" s="3"/>
-    </row>
-    <row r="98" spans="3:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D98" s="2" t="s">
         <v>271</v>
       </c>
       <c r="F98" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="I98" s="5" t="s">
+      <c r="J98" s="5" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="99" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:10" x14ac:dyDescent="0.3">
       <c r="D99" s="1" t="s">
         <v>272</v>
       </c>
       <c r="F99" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="I99" s="5" t="s">
+      <c r="J99" s="5" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="100" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I100" s="5" t="s">
+    <row r="100" spans="3:10" x14ac:dyDescent="0.3">
+      <c r="J100" s="5" t="s">
         <v>275</v>
       </c>
     </row>
-    <row r="101" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I101" s="3"/>
-    </row>
-    <row r="104" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="I104" s="3"/>
-    </row>
   </sheetData>
-  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="46" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.35433070866141736" bottom="0.35433070866141736" header="0.11811023622047245" footer="0.11811023622047245"/>
+  <pageSetup scale="50" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>

--- a/PCBs/beaglebone_pinout_concept.xlsx
+++ b/PCBs/beaglebone_pinout_concept.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr dateCompatibility="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ingmo\Documents\GitHub\shepherd_v2_planning\PCBs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{EE7127C7-54EC-43C5-8C2A-78C2D66F9FF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{202BF6CC-F0D2-461B-B03A-C2F031D29A13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="1752" windowWidth="23016" windowHeight="14376" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5688" yWindow="1128" windowWidth="23052" windowHeight="12960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -892,9 +892,6 @@
     <t>EN_Emulator</t>
   </si>
   <si>
-    <t>ShepV2.3-FN</t>
-  </si>
-  <si>
     <t>pru1_target_GPIO5</t>
   </si>
   <si>
@@ -938,6 +935,9 @@
   </si>
   <si>
     <t>prgm_dir2_TMS</t>
+  </si>
+  <si>
+    <t>ShepV2.3/2.4-FN</t>
   </si>
 </sst>
 </file>
@@ -1087,7 +1087,7 @@
     </tableColumn>
     <tableColumn id="10" xr3:uid="{586FACFA-29E6-4265-AE51-A8713D1E500A}" name="ShepV2-FN" dataDxfId="1"/>
     <tableColumn id="12" xr3:uid="{6023C99F-0439-4A92-ABC4-3DD041F85455}" name="ShepV2.1/2.2-Chg"/>
-    <tableColumn id="13" xr3:uid="{54036102-03EB-4E8E-BEAE-88BCF54E0963}" name="ShepV2.3-FN" dataDxfId="0">
+    <tableColumn id="13" xr3:uid="{54036102-03EB-4E8E-BEAE-88BCF54E0963}" name="ShepV2.3/2.4-FN" dataDxfId="0">
       <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1397,8 +1397,8 @@
   </sheetPr>
   <dimension ref="A1:L100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="N35" sqref="N35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1449,7 +1449,7 @@
         <v>282</v>
       </c>
       <c r="L1" t="s">
-        <v>285</v>
+        <v>300</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
@@ -2017,7 +2017,7 @@
         <v>279</v>
       </c>
       <c r="L28" s="9" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.3">
@@ -2125,7 +2125,7 @@
       <c r="J32" s="3"/>
       <c r="K32" s="6"/>
       <c r="L32" s="9" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.3">
@@ -2148,7 +2148,7 @@
       <c r="J33" s="3"/>
       <c r="K33" s="6"/>
       <c r="L33" s="9" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.3">
@@ -2174,7 +2174,7 @@
       <c r="J34" s="3"/>
       <c r="K34" s="6"/>
       <c r="L34" s="9" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -2200,7 +2200,7 @@
       <c r="J35" s="3"/>
       <c r="K35" s="6"/>
       <c r="L35" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.3">
@@ -2223,7 +2223,7 @@
       <c r="J36" s="3"/>
       <c r="K36" s="6"/>
       <c r="L36" s="9" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.3">
@@ -2249,7 +2249,7 @@
       <c r="J37" s="3"/>
       <c r="K37" s="6"/>
       <c r="L37" s="9" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -2272,7 +2272,7 @@
       <c r="J38" s="3"/>
       <c r="K38" s="6"/>
       <c r="L38" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.3">
@@ -2295,7 +2295,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="6"/>
       <c r="L39" s="9" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.3">
@@ -2322,7 +2322,7 @@
         <v>234</v>
       </c>
       <c r="L40" s="9" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.3">
@@ -2349,7 +2349,7 @@
         <v>235</v>
       </c>
       <c r="L41" s="9" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.3">
@@ -2405,7 +2405,7 @@
       </c>
       <c r="K43" s="6"/>
       <c r="L43" s="9" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.3">
@@ -2840,7 +2840,7 @@
       </c>
       <c r="J62" s="3"/>
       <c r="L62" s="11" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.3">
@@ -2889,7 +2889,7 @@
         <v>242</v>
       </c>
       <c r="L64" s="9" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.3">
@@ -2913,7 +2913,7 @@
         <v>241</v>
       </c>
       <c r="L65" s="9" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.3">
